--- a/admin/pages/User-Based/result/1_original_matrix.xlsx
+++ b/admin/pages/User-Based/result/1_original_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD37"/>
+  <dimension ref="A1:CW39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,255 +591,350 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>122</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>212</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>223</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>227</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -887,77 +982,96 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
         <v>12</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="n">
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>4</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
         <v>56</v>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>4</v>
-      </c>
+      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>4</v>
+      </c>
       <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="n">
-        <v>12</v>
-      </c>
+      <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="n">
-        <v>28</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2344</v>
-      </c>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="n">
-        <v>14</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="n">
+        <v>28</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>2344</v>
+      </c>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
+      <c r="BV2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>5</v>
+      </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr"/>
       <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="n">
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="n">
         <v>8</v>
       </c>
-      <c r="CD2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1016,26 +1130,34 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
-        <v>6</v>
-      </c>
+      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>6</v>
+      </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="n">
-        <v>18</v>
-      </c>
+      <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
+      <c r="BE3" t="n">
+        <v>19</v>
+      </c>
       <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
+      <c r="BG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>46</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>284</v>
+      </c>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
@@ -1046,18 +1168,41 @@
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="n">
-        <v>20</v>
-      </c>
+      <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>20</v>
+      </c>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1109,30 +1254,30 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="n">
         <v>144</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>14</v>
-      </c>
+      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>14</v>
+      </c>
       <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="n">
-        <v>82</v>
-      </c>
+      <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BC4" t="n">
+        <v>82</v>
+      </c>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
@@ -1142,30 +1287,49 @@
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
       <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="n">
-        <v>59</v>
-      </c>
+      <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="n">
-        <v>15</v>
-      </c>
+      <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="n">
-        <v>10</v>
-      </c>
+      <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
+      <c r="BV4" t="n">
+        <v>59</v>
+      </c>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
+      <c r="BZ4" t="n">
+        <v>15</v>
+      </c>
       <c r="CA4" t="inlineStr"/>
       <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1227,42 +1391,50 @@
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>24</v>
-      </c>
+      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>24</v>
+      </c>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="n">
-        <v>5</v>
-      </c>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>142</v>
+      </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
+      <c r="BK5" t="n">
+        <v>18</v>
+      </c>
       <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="n">
-        <v>9</v>
-      </c>
+      <c r="BM5" t="n">
+        <v>28</v>
+      </c>
+      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
+      <c r="BT5" t="n">
+        <v>8</v>
+      </c>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
+      <c r="BW5" t="n">
+        <v>9</v>
+      </c>
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
@@ -1270,6 +1442,29 @@
       <c r="CB5" t="inlineStr"/>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="n">
+        <v>20</v>
+      </c>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1309,17 +1504,17 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
         <v>99</v>
       </c>
-      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
         <v>24</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1337,37 +1532,66 @@
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
-        <v>290</v>
-      </c>
+      <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v>10</v>
+      </c>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
+      <c r="BL6" t="n">
+        <v>290</v>
+      </c>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="n">
-        <v>4</v>
-      </c>
+      <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>14</v>
+      </c>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>22</v>
+      </c>
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
+      <c r="CB6" t="n">
+        <v>4</v>
+      </c>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="n">
+        <v>14</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1455,13 +1679,34 @@
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="n">
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="n">
         <v>6</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CV7" t="n">
         <v>4</v>
       </c>
-      <c r="CD7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1513,11 +1758,11 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
         <v>13</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1558,6 +1803,27 @@
       <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1601,32 +1867,32 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="n">
         <v>524</v>
       </c>
-      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="n">
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
         <v>86</v>
       </c>
-      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="n">
         <v>5</v>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="n">
-        <v>32.5</v>
-      </c>
+      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>32.5</v>
+      </c>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -1642,12 +1908,12 @@
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
+      <c r="BM9" t="n">
+        <v>28</v>
+      </c>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="n">
-        <v>35</v>
-      </c>
+      <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
@@ -1656,12 +1922,33 @@
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
+      <c r="BY9" t="n">
+        <v>35</v>
+      </c>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1701,48 +1988,54 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
-        <v>21</v>
-      </c>
+      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="n">
+      <c r="AV10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="n">
         <v>5</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BB10" t="n">
         <v>300</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BC10" t="n">
         <v>12</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BD10" t="n">
         <v>202</v>
       </c>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="n">
-        <v>626</v>
-      </c>
+      <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
@@ -1750,7 +2043,9 @@
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
+      <c r="BO10" t="n">
+        <v>626</v>
+      </c>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
@@ -1766,6 +2061,25 @@
       <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1827,13 +2141,13 @@
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="n">
-        <v>4</v>
-      </c>
+      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BD11" t="n">
+        <v>4</v>
+      </c>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
@@ -1860,6 +2174,25 @@
       <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1944,9 +2277,7 @@
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="n">
-        <v>16</v>
-      </c>
+      <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="inlineStr"/>
       <c r="BX12" t="inlineStr"/>
@@ -1956,6 +2287,27 @@
       <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="n">
+        <v>16</v>
+      </c>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2008,11 +2360,11 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="n">
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="n">
         <v>19</v>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
@@ -2020,20 +2372,18 @@
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
+      <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
+      <c r="BC13" t="n">
+        <v>34</v>
+      </c>
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="n">
-        <v>88</v>
-      </c>
+      <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
@@ -2041,7 +2391,9 @@
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v>88</v>
+      </c>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
@@ -2056,6 +2408,25 @@
       <c r="CB13" t="inlineStr"/>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2114,12 +2485,12 @@
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="n">
-        <v>34</v>
-      </c>
+      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>34</v>
+      </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
@@ -2152,6 +2523,25 @@
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2192,10 +2582,10 @@
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="n">
         <v>180</v>
       </c>
-      <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
@@ -2222,9 +2612,7 @@
       <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="n">
-        <v>70</v>
-      </c>
+      <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="inlineStr"/>
@@ -2232,17 +2620,15 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
+      <c r="BQ15" t="n">
+        <v>70</v>
+      </c>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="n">
-        <v>5</v>
-      </c>
+      <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="n">
-        <v>4</v>
-      </c>
+      <c r="BW15" t="inlineStr"/>
       <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
@@ -2250,6 +2636,29 @@
       <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2340,8 +2749,29 @@
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr"/>
       <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
+      <c r="CC16" t="n">
+        <v>8</v>
+      </c>
       <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2386,10 +2816,10 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="n">
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
         <v>196</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
@@ -2405,26 +2835,26 @@
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="n">
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="n">
         <v>9</v>
       </c>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="n">
-        <v>48</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="n">
-        <v>8</v>
-      </c>
+      <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
+      <c r="BJ17" t="n">
+        <v>48</v>
+      </c>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
+      <c r="BM17" t="n">
+        <v>8</v>
+      </c>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
@@ -2442,6 +2872,25 @@
       <c r="CB17" t="inlineStr"/>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2535,13 +2984,32 @@
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="n">
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="n">
         <v>8</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CV18" t="n">
         <v>10</v>
       </c>
-      <c r="CD18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2586,10 +3054,10 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="n">
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="n">
         <v>77</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
@@ -2635,7 +3103,28 @@
       <c r="CA19" t="inlineStr"/>
       <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
+      <c r="CD19" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2704,37 +3193,33 @@
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="n">
-        <v>4</v>
-      </c>
+      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
       <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="n">
-        <v>173</v>
-      </c>
+      <c r="BF20" t="inlineStr"/>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="n">
-        <v>3222</v>
-      </c>
+      <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
+      <c r="BK20" t="n">
+        <v>4</v>
+      </c>
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
+      <c r="BN20" t="n">
+        <v>173</v>
+      </c>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr"/>
+      <c r="BQ20" t="n">
+        <v>3222</v>
+      </c>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
-      <c r="BV20" t="n">
-        <v>23</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>73</v>
-      </c>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
@@ -2742,6 +3227,29 @@
       <c r="CB20" t="inlineStr"/>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>73</v>
+      </c>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2787,10 +3295,10 @@
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="n">
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="n">
         <v>8</v>
       </c>
-      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
@@ -2799,22 +3307,22 @@
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="n">
-        <v>4</v>
-      </c>
+      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v>4</v>
+      </c>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="n">
-        <v>666</v>
-      </c>
+      <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="inlineStr"/>
+      <c r="BE21" t="n">
+        <v>666</v>
+      </c>
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
@@ -2835,13 +3343,32 @@
       <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="inlineStr"/>
       <c r="BY21" t="inlineStr"/>
-      <c r="BZ21" t="n">
-        <v>6</v>
-      </c>
+      <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="inlineStr"/>
       <c r="CB21" t="inlineStr"/>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr"/>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2932,6 +3459,25 @@
       <c r="CB22" t="inlineStr"/>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
+      <c r="CW22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3024,6 +3570,25 @@
       <c r="CB23" t="inlineStr"/>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr"/>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="inlineStr"/>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
+      <c r="CJ23" t="inlineStr"/>
+      <c r="CK23" t="inlineStr"/>
+      <c r="CL23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
+      <c r="CW23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3044,7 +3609,9 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -3116,6 +3683,25 @@
       <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
+      <c r="CW24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3170,12 +3756,12 @@
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="n">
-        <v>30</v>
-      </c>
+      <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
+      <c r="AV25" t="n">
+        <v>30</v>
+      </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
@@ -3210,6 +3796,25 @@
       <c r="CB25" t="inlineStr"/>
       <c r="CC25" t="inlineStr"/>
       <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3264,13 +3869,13 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="n">
-        <v>17</v>
-      </c>
+      <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
+      <c r="BA26" t="n">
+        <v>17</v>
+      </c>
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
@@ -3300,6 +3905,25 @@
       <c r="CB26" t="inlineStr"/>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="inlineStr"/>
+      <c r="CL26" t="inlineStr"/>
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
+      <c r="CW26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3359,12 +3983,12 @@
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="n">
-        <v>52</v>
-      </c>
+      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>52</v>
+      </c>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
@@ -3379,39 +4003,58 @@
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="n">
-        <v>48</v>
-      </c>
+      <c r="BL27" t="inlineStr"/>
       <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
-      <c r="BO27" t="n">
-        <v>27</v>
-      </c>
+      <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="inlineStr"/>
+      <c r="BU27" t="n">
+        <v>48</v>
+      </c>
       <c r="BV27" t="inlineStr"/>
       <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="inlineStr"/>
+      <c r="BX27" t="n">
+        <v>27</v>
+      </c>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="inlineStr"/>
       <c r="CB27" t="inlineStr"/>
       <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
+      <c r="CW27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52</v>
       </c>
       <c r="B28" t="n">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -3466,58 +4109,83 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
+      <c r="AO28" t="n">
+        <v>326</v>
+      </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
+      <c r="AT28" t="n">
+        <v>81</v>
+      </c>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="n">
-        <v>8</v>
-      </c>
+      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="n">
-        <v>80</v>
-      </c>
-      <c r="BD28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="n">
+        <v>8</v>
+      </c>
       <c r="BE28" t="inlineStr"/>
       <c r="BF28" t="inlineStr"/>
       <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="n">
-        <v>16</v>
-      </c>
+      <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="n">
-        <v>8</v>
-      </c>
+      <c r="BK28" t="n">
+        <v>80</v>
+      </c>
+      <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="inlineStr"/>
+      <c r="BP28" t="n">
+        <v>16</v>
+      </c>
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr"/>
+      <c r="BU28" t="n">
+        <v>8</v>
+      </c>
       <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="inlineStr"/>
       <c r="BX28" t="inlineStr"/>
-      <c r="BY28" t="n">
-        <v>18</v>
-      </c>
+      <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
       <c r="CA28" t="inlineStr"/>
       <c r="CB28" t="inlineStr"/>
       <c r="CC28" t="inlineStr"/>
       <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="n">
+        <v>18</v>
+      </c>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3530,7 +4198,9 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -3548,7 +4218,7 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y29" t="n">
         <v>218</v>
@@ -3568,7 +4238,9 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
+      <c r="AO29" t="n">
+        <v>20</v>
+      </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
@@ -3576,13 +4248,13 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="n">
-        <v>18</v>
-      </c>
+      <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
+      <c r="BA29" t="n">
+        <v>18</v>
+      </c>
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="inlineStr"/>
@@ -3595,7 +4267,9 @@
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="inlineStr"/>
+      <c r="BN29" t="n">
+        <v>8</v>
+      </c>
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="inlineStr"/>
@@ -3612,6 +4286,29 @@
       <c r="CB29" t="inlineStr"/>
       <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>16</v>
+      </c>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3673,43 +4370,43 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="n">
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="n">
         <v>9</v>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="n">
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="n">
         <v>156</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="n">
-        <v>788</v>
-      </c>
-      <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
+      <c r="AZ30" t="n">
+        <v>788</v>
+      </c>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
       <c r="BE30" t="inlineStr"/>
       <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="n">
-        <v>144</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>40</v>
-      </c>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
       <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr"/>
-      <c r="BO30" t="inlineStr"/>
-      <c r="BP30" t="inlineStr"/>
+      <c r="BO30" t="n">
+        <v>144</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>40</v>
+      </c>
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
@@ -3724,6 +4421,25 @@
       <c r="CB30" t="inlineStr"/>
       <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3785,23 +4501,23 @@
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="n">
-        <v>8</v>
-      </c>
+      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AU31" t="n">
+        <v>8</v>
+      </c>
       <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>94</v>
-      </c>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
+      <c r="BA31" t="n">
+        <v>140</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>94</v>
+      </c>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
       <c r="BE31" t="inlineStr"/>
@@ -3809,9 +4525,7 @@
       <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="inlineStr"/>
       <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="n">
-        <v>5</v>
-      </c>
+      <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
@@ -3819,11 +4533,11 @@
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
       <c r="BQ31" t="inlineStr"/>
-      <c r="BR31" t="inlineStr"/>
+      <c r="BR31" t="n">
+        <v>5</v>
+      </c>
       <c r="BS31" t="inlineStr"/>
-      <c r="BT31" t="n">
-        <v>4</v>
-      </c>
+      <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
       <c r="BW31" t="inlineStr"/>
@@ -3834,6 +4548,27 @@
       <c r="CB31" t="inlineStr"/>
       <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3884,7 +4619,9 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="AE32" t="n">
+        <v>18</v>
+      </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
@@ -3893,7 +4630,9 @@
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
+      <c r="AN32" t="n">
+        <v>38</v>
+      </c>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -3918,9 +4657,7 @@
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="n">
-        <v>332</v>
-      </c>
+      <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
@@ -3929,19 +4666,40 @@
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
       <c r="BU32" t="inlineStr"/>
-      <c r="BV32" t="inlineStr"/>
+      <c r="BV32" t="n">
+        <v>332</v>
+      </c>
       <c r="BW32" t="inlineStr"/>
-      <c r="BX32" t="n">
-        <v>12</v>
-      </c>
+      <c r="BX32" t="inlineStr"/>
       <c r="BY32" t="inlineStr"/>
       <c r="BZ32" t="inlineStr"/>
       <c r="CA32" t="inlineStr"/>
       <c r="CB32" t="inlineStr"/>
-      <c r="CC32" t="n">
+      <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="inlineStr"/>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="inlineStr"/>
+      <c r="CJ32" t="inlineStr"/>
+      <c r="CK32" t="inlineStr"/>
+      <c r="CL32" t="inlineStr"/>
+      <c r="CM32" t="inlineStr"/>
+      <c r="CN32" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
+      <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="inlineStr"/>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="n">
         <v>318</v>
       </c>
-      <c r="CD32" t="n">
+      <c r="CW32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4001,12 +4759,12 @@
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="n">
-        <v>29</v>
-      </c>
+      <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
+      <c r="AW33" t="n">
+        <v>29</v>
+      </c>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
@@ -4015,9 +4773,7 @@
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
       <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="n">
-        <v>40</v>
-      </c>
+      <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="inlineStr"/>
       <c r="BI33" t="inlineStr"/>
@@ -4025,7 +4781,9 @@
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
       <c r="BM33" t="inlineStr"/>
-      <c r="BN33" t="inlineStr"/>
+      <c r="BN33" t="n">
+        <v>40</v>
+      </c>
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
       <c r="BQ33" t="inlineStr"/>
@@ -4036,16 +4794,37 @@
       <c r="BV33" t="inlineStr"/>
       <c r="BW33" t="inlineStr"/>
       <c r="BX33" t="inlineStr"/>
-      <c r="BY33" t="n">
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="n">
+        <v>16</v>
+      </c>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="inlineStr"/>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="inlineStr"/>
+      <c r="CJ33" t="inlineStr"/>
+      <c r="CK33" t="inlineStr"/>
+      <c r="CL33" t="inlineStr"/>
+      <c r="CM33" t="inlineStr"/>
+      <c r="CN33" t="inlineStr"/>
+      <c r="CO33" t="inlineStr"/>
+      <c r="CP33" t="n">
         <v>972</v>
       </c>
-      <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr"/>
-      <c r="CB33" t="inlineStr"/>
-      <c r="CC33" t="n">
+      <c r="CQ33" t="inlineStr"/>
+      <c r="CR33" t="inlineStr"/>
+      <c r="CS33" t="inlineStr"/>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="n">
         <v>8</v>
       </c>
-      <c r="CD33" t="inlineStr"/>
+      <c r="CW33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4108,12 +4887,12 @@
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="n">
-        <v>28</v>
-      </c>
+      <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
+      <c r="AX34" t="n">
+        <v>28</v>
+      </c>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
@@ -4122,9 +4901,7 @@
       <c r="BD34" t="inlineStr"/>
       <c r="BE34" t="inlineStr"/>
       <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="n">
-        <v>91</v>
-      </c>
+      <c r="BG34" t="inlineStr"/>
       <c r="BH34" t="inlineStr"/>
       <c r="BI34" t="inlineStr"/>
       <c r="BJ34" t="inlineStr"/>
@@ -4132,7 +4909,9 @@
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="inlineStr"/>
       <c r="BN34" t="inlineStr"/>
-      <c r="BO34" t="inlineStr"/>
+      <c r="BO34" t="n">
+        <v>91</v>
+      </c>
       <c r="BP34" t="inlineStr"/>
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
@@ -4144,12 +4923,31 @@
       <c r="BX34" t="inlineStr"/>
       <c r="BY34" t="inlineStr"/>
       <c r="BZ34" t="inlineStr"/>
-      <c r="CA34" t="n">
-        <v>4</v>
-      </c>
+      <c r="CA34" t="inlineStr"/>
       <c r="CB34" t="inlineStr"/>
       <c r="CC34" t="inlineStr"/>
       <c r="CD34" t="inlineStr"/>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
+      <c r="CR34" t="inlineStr"/>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU34" t="inlineStr"/>
+      <c r="CV34" t="inlineStr"/>
+      <c r="CW34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4198,19 +4996,21 @@
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>24</v>
+      </c>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>30</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
+      <c r="AU35" t="n">
+        <v>30</v>
+      </c>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
@@ -4226,9 +5026,7 @@
       <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr"/>
       <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="n">
-        <v>10</v>
-      </c>
+      <c r="BK35" t="inlineStr"/>
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="inlineStr"/>
       <c r="BN35" t="inlineStr"/>
@@ -4236,7 +5034,9 @@
       <c r="BP35" t="inlineStr"/>
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
-      <c r="BS35" t="inlineStr"/>
+      <c r="BS35" t="n">
+        <v>10</v>
+      </c>
       <c r="BT35" t="inlineStr"/>
       <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="inlineStr"/>
@@ -4248,6 +5048,25 @@
       <c r="CB35" t="inlineStr"/>
       <c r="CC35" t="inlineStr"/>
       <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="inlineStr"/>
+      <c r="CM35" t="inlineStr"/>
+      <c r="CN35" t="inlineStr"/>
+      <c r="CO35" t="inlineStr"/>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
+      <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
+      <c r="CW35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4336,6 +5155,25 @@
       <c r="CB36" t="inlineStr"/>
       <c r="CC36" t="inlineStr"/>
       <c r="CD36" t="inlineStr"/>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="inlineStr"/>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="inlineStr"/>
+      <c r="CJ36" t="inlineStr"/>
+      <c r="CK36" t="inlineStr"/>
+      <c r="CL36" t="inlineStr"/>
+      <c r="CM36" t="inlineStr"/>
+      <c r="CN36" t="inlineStr"/>
+      <c r="CO36" t="inlineStr"/>
+      <c r="CP36" t="inlineStr"/>
+      <c r="CQ36" t="inlineStr"/>
+      <c r="CR36" t="inlineStr"/>
+      <c r="CS36" t="inlineStr"/>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
+      <c r="CW36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4368,7 +5206,9 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>10</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -4424,6 +5264,249 @@
       <c r="CB37" t="inlineStr"/>
       <c r="CC37" t="inlineStr"/>
       <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
+      <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
+      <c r="CW37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2946</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>7</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>176</v>
+      </c>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="n">
+        <v>25</v>
+      </c>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
+      <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr"/>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
+      <c r="CW38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>67</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="inlineStr"/>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="inlineStr"/>
+      <c r="CJ39" t="inlineStr"/>
+      <c r="CK39" t="inlineStr"/>
+      <c r="CL39" t="inlineStr"/>
+      <c r="CM39" t="inlineStr"/>
+      <c r="CN39" t="inlineStr"/>
+      <c r="CO39" t="inlineStr"/>
+      <c r="CP39" t="inlineStr"/>
+      <c r="CQ39" t="inlineStr"/>
+      <c r="CR39" t="inlineStr"/>
+      <c r="CS39" t="inlineStr"/>
+      <c r="CT39" t="inlineStr"/>
+      <c r="CU39" t="inlineStr"/>
+      <c r="CV39" t="inlineStr"/>
+      <c r="CW39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/admin/pages/User-Based/result/1_original_matrix.xlsx
+++ b/admin/pages/User-Based/result/1_original_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW39"/>
+  <dimension ref="A1:CW40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,14 +1905,20 @@
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>8</v>
+      </c>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="n">
         <v>28</v>
       </c>
       <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
+      <c r="BO9" t="n">
+        <v>8</v>
+      </c>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
@@ -4957,7 +4963,7 @@
         <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
@@ -5070,12 +5076,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>18</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -5099,7 +5103,9 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>14</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
@@ -5177,12 +5183,12 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>64</v>
-      </c>
-      <c r="B37" t="n">
-        <v>24</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>18</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -5206,9 +5212,7 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="n">
-        <v>10</v>
-      </c>
+      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -5286,10 +5290,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="n">
-        <v>2946</v>
+        <v>24</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -5301,9 +5305,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>7</v>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -5317,11 +5319,11 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="AA38" t="n">
+        <v>10</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="n">
-        <v>176</v>
-      </c>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
@@ -5343,9 +5345,7 @@
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="n">
-        <v>8</v>
-      </c>
+      <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
@@ -5378,9 +5378,7 @@
       <c r="CC38" t="inlineStr"/>
       <c r="CD38" t="inlineStr"/>
       <c r="CE38" t="inlineStr"/>
-      <c r="CF38" t="n">
-        <v>25</v>
-      </c>
+      <c r="CF38" t="inlineStr"/>
       <c r="CG38" t="inlineStr"/>
       <c r="CH38" t="inlineStr"/>
       <c r="CI38" t="inlineStr"/>
@@ -5401,10 +5399,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>2946</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -5416,7 +5414,9 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>7</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -5432,7 +5432,9 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>176</v>
+      </c>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
@@ -5454,15 +5456,15 @@
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
+      <c r="AY39" t="n">
+        <v>8</v>
+      </c>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
-      <c r="BE39" t="n">
-        <v>8</v>
-      </c>
+      <c r="BE39" t="inlineStr"/>
       <c r="BF39" t="inlineStr"/>
       <c r="BG39" t="inlineStr"/>
       <c r="BH39" t="inlineStr"/>
@@ -5489,7 +5491,9 @@
       <c r="CC39" t="inlineStr"/>
       <c r="CD39" t="inlineStr"/>
       <c r="CE39" t="inlineStr"/>
-      <c r="CF39" t="inlineStr"/>
+      <c r="CF39" t="n">
+        <v>25</v>
+      </c>
       <c r="CG39" t="inlineStr"/>
       <c r="CH39" t="inlineStr"/>
       <c r="CI39" t="inlineStr"/>
@@ -5508,6 +5512,115 @@
       <c r="CV39" t="inlineStr"/>
       <c r="CW39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>67</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="inlineStr"/>
+      <c r="CD40" t="inlineStr"/>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
+      <c r="CG40" t="inlineStr"/>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="inlineStr"/>
+      <c r="CJ40" t="inlineStr"/>
+      <c r="CK40" t="inlineStr"/>
+      <c r="CL40" t="inlineStr"/>
+      <c r="CM40" t="inlineStr"/>
+      <c r="CN40" t="inlineStr"/>
+      <c r="CO40" t="inlineStr"/>
+      <c r="CP40" t="inlineStr"/>
+      <c r="CQ40" t="inlineStr"/>
+      <c r="CR40" t="inlineStr"/>
+      <c r="CS40" t="inlineStr"/>
+      <c r="CT40" t="inlineStr"/>
+      <c r="CU40" t="inlineStr"/>
+      <c r="CV40" t="inlineStr"/>
+      <c r="CW40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/admin/pages/User-Based/result/1_original_matrix.xlsx
+++ b/admin/pages/User-Based/result/1_original_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW40"/>
+  <dimension ref="A1:CZ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,320 +621,335 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>122</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>174</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>212</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>221</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>222</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>223</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>227</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>228</t>
         </is>
@@ -991,30 +1006,30 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="n">
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="n">
         <v>4</v>
       </c>
-      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="n">
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="n">
         <v>56</v>
       </c>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="n">
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="n">
         <v>4</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="n">
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="n">
         <v>12</v>
       </c>
-      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
@@ -1026,26 +1041,26 @@
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="n">
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="n">
         <v>28</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>2344</v>
       </c>
-      <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="n">
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="n">
         <v>14</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>6</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>5</v>
       </c>
-      <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr"/>
       <c r="CB2" t="inlineStr"/>
@@ -1068,10 +1083,13 @@
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="n">
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="n">
         <v>8</v>
       </c>
-      <c r="CW2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1133,32 +1151,32 @@
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="n">
         <v>6</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="n">
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="n">
         <v>19</v>
       </c>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="n">
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="n">
         <v>12</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>46</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>12</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>284</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
@@ -1168,10 +1186,10 @@
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="n">
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="n">
         <v>8</v>
       </c>
-      <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
@@ -1192,17 +1210,20 @@
       <c r="CN3" t="inlineStr"/>
       <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="n">
-        <v>14</v>
-      </c>
+      <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="n">
+        <v>14</v>
+      </c>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="n">
         <v>20</v>
       </c>
-      <c r="CT3" t="inlineStr"/>
-      <c r="CU3" t="inlineStr"/>
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1255,10 +1276,10 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="n">
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
         <v>144</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1267,18 +1288,18 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="n">
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
         <v>14</v>
       </c>
-      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="n">
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="n">
         <v>82</v>
       </c>
-      <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
@@ -1296,23 +1317,23 @@
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="n">
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="n">
         <v>59</v>
       </c>
-      <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="n">
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="n">
         <v>15</v>
       </c>
-      <c r="CA4" t="inlineStr"/>
       <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
-      <c r="CE4" t="n">
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="n">
         <v>10</v>
       </c>
-      <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="inlineStr"/>
       <c r="CI4" t="inlineStr"/>
@@ -1330,6 +1351,9 @@
       <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1394,48 +1418,48 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="n">
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="n">
         <v>24</v>
       </c>
-      <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="n">
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="n">
         <v>5</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>142</v>
       </c>
-      <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="n">
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="n">
         <v>18</v>
       </c>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="n">
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="n">
         <v>28</v>
       </c>
-      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="n">
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
         <v>8</v>
       </c>
-      <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="n">
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="n">
         <v>9</v>
       </c>
-      <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="inlineStr"/>
@@ -1446,25 +1470,28 @@
       <c r="CF5" t="inlineStr"/>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="n">
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="n">
         <v>8</v>
       </c>
-      <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
       <c r="CM5" t="inlineStr"/>
       <c r="CN5" t="inlineStr"/>
       <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="inlineStr"/>
-      <c r="CQ5" t="n">
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
         <v>20</v>
       </c>
-      <c r="CR5" t="inlineStr"/>
-      <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1512,10 +1539,10 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
         <v>24</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
@@ -1534,18 +1561,18 @@
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="n">
         <v>10</v>
       </c>
-      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="n">
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="n">
         <v>290</v>
       </c>
-      <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
@@ -1553,21 +1580,21 @@
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="n">
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="n">
         <v>14</v>
       </c>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="n">
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="n">
         <v>22</v>
       </c>
-      <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="n">
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="n">
         <v>4</v>
       </c>
-      <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
@@ -1581,17 +1608,20 @@
       <c r="CN6" t="inlineStr"/>
       <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr"/>
-      <c r="CQ6" t="n">
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="n">
         <v>14</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CT6" t="n">
         <v>8</v>
       </c>
-      <c r="CS6" t="inlineStr"/>
-      <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1692,21 +1722,24 @@
       <c r="CL7" t="inlineStr"/>
       <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="n">
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="n">
         <v>24</v>
       </c>
-      <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr"/>
       <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="n">
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="n">
         <v>6</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CY7" t="n">
         <v>4</v>
       </c>
-      <c r="CW7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1760,10 +1793,10 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="n">
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="n">
         <v>13</v>
       </c>
-      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
@@ -1819,11 +1852,14 @@
       <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr"/>
       <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="n">
-        <v>10</v>
-      </c>
+      <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1840,12 +1876,16 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>184</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>12</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1860,14 +1900,18 @@
         <v>316</v>
       </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>74</v>
+      </c>
       <c r="AB9" t="n">
         <v>63</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>138</v>
+      </c>
       <c r="AG9" t="n">
         <v>524</v>
       </c>
@@ -1875,25 +1919,25 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="n">
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="n">
         <v>86</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="n">
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
         <v>5</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="n">
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="n">
         <v>32.5</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
@@ -1901,25 +1945,29 @@
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
+      <c r="BF9" t="n">
+        <v>22</v>
+      </c>
       <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
+      <c r="BH9" t="n">
+        <v>8</v>
+      </c>
       <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="n">
-        <v>8</v>
-      </c>
+      <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
         <v>8</v>
       </c>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="n">
+      <c r="BL9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="n">
         <v>28</v>
       </c>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="n">
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="n">
         <v>8</v>
       </c>
-      <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
@@ -1928,10 +1976,10 @@
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="n">
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="n">
         <v>35</v>
       </c>
-      <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
@@ -1954,7 +2002,12 @@
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr"/>
       <c r="CV9" t="inlineStr"/>
-      <c r="CW9" t="inlineStr"/>
+      <c r="CW9" t="n">
+        <v>72</v>
+      </c>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2011,35 +2064,35 @@
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="n">
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="n">
         <v>12</v>
       </c>
-      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="n">
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
         <v>21</v>
       </c>
-      <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="n">
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="n">
         <v>5</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BC10" t="n">
         <v>300</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BD10" t="n">
         <v>12</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BE10" t="n">
         <v>202</v>
       </c>
-      <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
@@ -2049,10 +2102,10 @@
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="n">
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="n">
         <v>626</v>
       </c>
-      <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
@@ -2086,6 +2139,9 @@
       <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2151,10 +2207,10 @@
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="n">
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="n">
         <v>4</v>
       </c>
-      <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
@@ -2199,6 +2255,9 @@
       <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2299,11 +2358,11 @@
       <c r="CH12" t="inlineStr"/>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="n">
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="n">
         <v>16</v>
       </c>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
       <c r="CN12" t="inlineStr"/>
       <c r="CO12" t="inlineStr"/>
       <c r="CP12" t="inlineStr"/>
@@ -2314,6 +2373,9 @@
       <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2368,10 +2430,10 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
         <v>19</v>
       </c>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
@@ -2382,10 +2444,10 @@
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="n">
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="n">
         <v>34</v>
       </c>
-      <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
@@ -2397,10 +2459,10 @@
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="n">
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="n">
         <v>88</v>
       </c>
-      <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
@@ -2433,6 +2495,9 @@
       <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2494,10 +2559,10 @@
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="n">
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="n">
         <v>34</v>
       </c>
-      <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
@@ -2548,6 +2613,9 @@
       <c r="CU14" t="inlineStr"/>
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2626,10 +2694,10 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="n">
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="n">
         <v>70</v>
       </c>
-      <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
@@ -2647,16 +2715,16 @@
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="inlineStr"/>
       <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="n">
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="n">
         <v>5</v>
       </c>
-      <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="n">
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="n">
         <v>4</v>
       </c>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
       <c r="CR15" t="inlineStr"/>
@@ -2665,6 +2733,9 @@
       <c r="CU15" t="inlineStr"/>
       <c r="CV15" t="inlineStr"/>
       <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2755,10 +2826,10 @@
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr"/>
       <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="n">
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="n">
         <v>8</v>
       </c>
-      <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="inlineStr"/>
       <c r="CG16" t="inlineStr"/>
@@ -2778,6 +2849,9 @@
       <c r="CU16" t="inlineStr"/>
       <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2845,23 +2919,23 @@
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="n">
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="n">
         <v>9</v>
       </c>
-      <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="n">
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="n">
         <v>48</v>
       </c>
-      <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="n">
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="n">
         <v>8</v>
       </c>
-      <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
@@ -2897,6 +2971,9 @@
       <c r="CU17" t="inlineStr"/>
       <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3009,13 +3086,16 @@
       <c r="CR18" t="inlineStr"/>
       <c r="CS18" t="inlineStr"/>
       <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="n">
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="n">
         <v>8</v>
       </c>
-      <c r="CV18" t="n">
+      <c r="CY18" t="n">
         <v>10</v>
       </c>
-      <c r="CW18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3109,10 +3189,10 @@
       <c r="CA19" t="inlineStr"/>
       <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="n">
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="n">
         <v>40</v>
       </c>
-      <c r="CE19" t="inlineStr"/>
       <c r="CF19" t="inlineStr"/>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="inlineStr"/>
@@ -3131,6 +3211,9 @@
       <c r="CU19" t="inlineStr"/>
       <c r="CV19" t="inlineStr"/>
       <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3207,20 +3290,20 @@
       <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="n">
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="n">
         <v>4</v>
       </c>
-      <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="n">
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="n">
         <v>173</v>
       </c>
-      <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="n">
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="n">
         <v>3222</v>
       </c>
-      <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
@@ -3240,14 +3323,14 @@
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
-      <c r="CL20" t="n">
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="n">
         <v>23</v>
       </c>
-      <c r="CM20" t="n">
+      <c r="CO20" t="n">
         <v>73</v>
       </c>
-      <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
       <c r="CP20" t="inlineStr"/>
       <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
@@ -3256,6 +3339,9 @@
       <c r="CU20" t="inlineStr"/>
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3316,20 +3402,20 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="n">
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="n">
         <v>4</v>
       </c>
-      <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="n">
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="n">
         <v>666</v>
       </c>
-      <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
@@ -3360,7 +3446,9 @@
       <c r="CH21" t="inlineStr"/>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
-      <c r="CK21" t="inlineStr"/>
+      <c r="CK21" t="n">
+        <v>10</v>
+      </c>
       <c r="CL21" t="inlineStr"/>
       <c r="CM21" t="inlineStr"/>
       <c r="CN21" t="inlineStr"/>
@@ -3368,13 +3456,16 @@
       <c r="CP21" t="inlineStr"/>
       <c r="CQ21" t="inlineStr"/>
       <c r="CR21" t="inlineStr"/>
-      <c r="CS21" t="n">
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="n">
         <v>6</v>
       </c>
-      <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr"/>
       <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr"/>
+      <c r="CZ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3484,6 +3575,9 @@
       <c r="CU22" t="inlineStr"/>
       <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="inlineStr"/>
+      <c r="CZ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3595,6 +3689,9 @@
       <c r="CU23" t="inlineStr"/>
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
+      <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="inlineStr"/>
+      <c r="CZ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3708,6 +3805,9 @@
       <c r="CU24" t="inlineStr"/>
       <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="inlineStr"/>
+      <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="inlineStr"/>
+      <c r="CZ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3765,10 +3865,10 @@
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="n">
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="n">
         <v>30</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
@@ -3821,6 +3921,9 @@
       <c r="CU25" t="inlineStr"/>
       <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="inlineStr"/>
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3879,10 +3982,10 @@
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="n">
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="n">
         <v>17</v>
       </c>
-      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
@@ -3930,6 +4033,9 @@
       <c r="CU26" t="inlineStr"/>
       <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="inlineStr"/>
+      <c r="CX26" t="inlineStr"/>
+      <c r="CY26" t="inlineStr"/>
+      <c r="CZ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3992,10 +4098,10 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="n">
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="n">
         <v>52</v>
       </c>
-      <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
@@ -4018,15 +4124,15 @@
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="n">
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="n">
         <v>48</v>
       </c>
-      <c r="BV27" t="inlineStr"/>
       <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="n">
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="n">
         <v>27</v>
       </c>
-      <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="inlineStr"/>
       <c r="CB27" t="inlineStr"/>
@@ -4051,6 +4157,9 @@
       <c r="CU27" t="inlineStr"/>
       <c r="CV27" t="inlineStr"/>
       <c r="CW27" t="inlineStr"/>
+      <c r="CX27" t="inlineStr"/>
+      <c r="CY27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4115,17 +4224,17 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="n">
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="n">
         <v>326</v>
       </c>
-      <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="n">
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="n">
         <v>81</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
@@ -4134,33 +4243,33 @@
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="n">
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="n">
         <v>8</v>
       </c>
-      <c r="BE28" t="inlineStr"/>
       <c r="BF28" t="inlineStr"/>
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="n">
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="n">
         <v>80</v>
       </c>
-      <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="n">
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="n">
         <v>16</v>
       </c>
-      <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="n">
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="n">
         <v>8</v>
       </c>
-      <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="inlineStr"/>
       <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
@@ -4174,24 +4283,27 @@
       <c r="CG28" t="inlineStr"/>
       <c r="CH28" t="inlineStr"/>
       <c r="CI28" t="inlineStr"/>
-      <c r="CJ28" t="n">
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="n">
         <v>4</v>
       </c>
-      <c r="CK28" t="inlineStr"/>
-      <c r="CL28" t="inlineStr"/>
       <c r="CM28" t="inlineStr"/>
       <c r="CN28" t="inlineStr"/>
       <c r="CO28" t="inlineStr"/>
-      <c r="CP28" t="n">
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="n">
         <v>18</v>
       </c>
-      <c r="CQ28" t="inlineStr"/>
-      <c r="CR28" t="inlineStr"/>
       <c r="CS28" t="inlineStr"/>
       <c r="CT28" t="inlineStr"/>
       <c r="CU28" t="inlineStr"/>
       <c r="CV28" t="inlineStr"/>
       <c r="CW28" t="inlineStr"/>
+      <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4244,10 +4356,10 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="n">
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="n">
         <v>20</v>
       </c>
-      <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4258,10 +4370,10 @@
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="n">
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="n">
         <v>18</v>
       </c>
-      <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="inlineStr"/>
       <c r="BE29" t="inlineStr"/>
@@ -4273,10 +4385,10 @@
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="n">
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="n">
         <v>8</v>
       </c>
-      <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
@@ -4294,13 +4406,13 @@
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="inlineStr"/>
       <c r="CF29" t="inlineStr"/>
-      <c r="CG29" t="n">
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="n">
         <v>14</v>
       </c>
-      <c r="CH29" t="n">
+      <c r="CI29" t="n">
         <v>16</v>
       </c>
-      <c r="CI29" t="inlineStr"/>
       <c r="CJ29" t="inlineStr"/>
       <c r="CK29" t="inlineStr"/>
       <c r="CL29" t="inlineStr"/>
@@ -4315,6 +4427,9 @@
       <c r="CU29" t="inlineStr"/>
       <c r="CV29" t="inlineStr"/>
       <c r="CW29" t="inlineStr"/>
+      <c r="CX29" t="inlineStr"/>
+      <c r="CY29" t="inlineStr"/>
+      <c r="CZ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4378,22 +4493,22 @@
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="n">
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="n">
         <v>9</v>
       </c>
-      <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="n">
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="n">
         <v>156</v>
       </c>
-      <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="n">
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="n">
         <v>788</v>
       </c>
-      <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
@@ -4407,13 +4522,13 @@
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr"/>
-      <c r="BO30" t="n">
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="n">
         <v>144</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BQ30" t="n">
         <v>40</v>
       </c>
-      <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
       <c r="BT30" t="inlineStr"/>
@@ -4446,6 +4561,9 @@
       <c r="CU30" t="inlineStr"/>
       <c r="CV30" t="inlineStr"/>
       <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4510,21 +4628,21 @@
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="n">
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="n">
         <v>8</v>
       </c>
-      <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="n">
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="n">
         <v>140</v>
       </c>
-      <c r="BB31" t="n">
+      <c r="BC31" t="n">
         <v>94</v>
       </c>
-      <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
       <c r="BE31" t="inlineStr"/>
       <c r="BF31" t="inlineStr"/>
@@ -4539,10 +4657,10 @@
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
       <c r="BQ31" t="inlineStr"/>
-      <c r="BR31" t="n">
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="n">
         <v>5</v>
       </c>
-      <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
@@ -4559,11 +4677,11 @@
       <c r="CG31" t="inlineStr"/>
       <c r="CH31" t="inlineStr"/>
       <c r="CI31" t="inlineStr"/>
-      <c r="CJ31" t="n">
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="n">
         <v>4</v>
       </c>
-      <c r="CK31" t="inlineStr"/>
-      <c r="CL31" t="inlineStr"/>
       <c r="CM31" t="inlineStr"/>
       <c r="CN31" t="inlineStr"/>
       <c r="CO31" t="inlineStr"/>
@@ -4575,6 +4693,9 @@
       <c r="CU31" t="inlineStr"/>
       <c r="CV31" t="inlineStr"/>
       <c r="CW31" t="inlineStr"/>
+      <c r="CX31" t="inlineStr"/>
+      <c r="CY31" t="inlineStr"/>
+      <c r="CZ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4636,10 +4757,10 @@
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="n">
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="n">
         <v>38</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
@@ -4672,10 +4793,10 @@
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
       <c r="BU32" t="inlineStr"/>
-      <c r="BV32" t="n">
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="n">
         <v>332</v>
       </c>
-      <c r="BW32" t="inlineStr"/>
       <c r="BX32" t="inlineStr"/>
       <c r="BY32" t="inlineStr"/>
       <c r="BZ32" t="inlineStr"/>
@@ -4692,20 +4813,23 @@
       <c r="CK32" t="inlineStr"/>
       <c r="CL32" t="inlineStr"/>
       <c r="CM32" t="inlineStr"/>
-      <c r="CN32" t="n">
+      <c r="CN32" t="inlineStr"/>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="n">
         <v>12</v>
       </c>
-      <c r="CO32" t="inlineStr"/>
-      <c r="CP32" t="inlineStr"/>
       <c r="CQ32" t="inlineStr"/>
       <c r="CR32" t="inlineStr"/>
       <c r="CS32" t="inlineStr"/>
       <c r="CT32" t="inlineStr"/>
       <c r="CU32" t="inlineStr"/>
-      <c r="CV32" t="n">
+      <c r="CV32" t="inlineStr"/>
+      <c r="CW32" t="inlineStr"/>
+      <c r="CX32" t="inlineStr"/>
+      <c r="CY32" t="n">
         <v>318</v>
       </c>
-      <c r="CW32" t="n">
+      <c r="CZ32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4768,10 +4892,10 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="n">
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="n">
         <v>29</v>
       </c>
-      <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
@@ -4787,10 +4911,10 @@
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
       <c r="BM33" t="inlineStr"/>
-      <c r="BN33" t="n">
+      <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="n">
         <v>40</v>
       </c>
-      <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
@@ -4802,10 +4926,10 @@
       <c r="BX33" t="inlineStr"/>
       <c r="BY33" t="inlineStr"/>
       <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="n">
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="n">
         <v>16</v>
       </c>
-      <c r="CB33" t="inlineStr"/>
       <c r="CC33" t="inlineStr"/>
       <c r="CD33" t="inlineStr"/>
       <c r="CE33" t="inlineStr"/>
@@ -4819,18 +4943,21 @@
       <c r="CM33" t="inlineStr"/>
       <c r="CN33" t="inlineStr"/>
       <c r="CO33" t="inlineStr"/>
-      <c r="CP33" t="n">
+      <c r="CP33" t="inlineStr"/>
+      <c r="CQ33" t="inlineStr"/>
+      <c r="CR33" t="n">
         <v>972</v>
       </c>
-      <c r="CQ33" t="inlineStr"/>
-      <c r="CR33" t="inlineStr"/>
       <c r="CS33" t="inlineStr"/>
       <c r="CT33" t="inlineStr"/>
       <c r="CU33" t="inlineStr"/>
-      <c r="CV33" t="n">
+      <c r="CV33" t="inlineStr"/>
+      <c r="CW33" t="inlineStr"/>
+      <c r="CX33" t="inlineStr"/>
+      <c r="CY33" t="n">
         <v>8</v>
       </c>
-      <c r="CW33" t="inlineStr"/>
+      <c r="CZ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4896,10 +5023,10 @@
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="n">
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="n">
         <v>28</v>
       </c>
-      <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
@@ -4915,10 +5042,10 @@
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="inlineStr"/>
       <c r="BN34" t="inlineStr"/>
-      <c r="BO34" t="n">
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="n">
         <v>91</v>
       </c>
-      <c r="BP34" t="inlineStr"/>
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
@@ -4948,12 +5075,15 @@
       <c r="CQ34" t="inlineStr"/>
       <c r="CR34" t="inlineStr"/>
       <c r="CS34" t="inlineStr"/>
-      <c r="CT34" t="n">
+      <c r="CT34" t="inlineStr"/>
+      <c r="CU34" t="inlineStr"/>
+      <c r="CV34" t="n">
         <v>4</v>
       </c>
-      <c r="CU34" t="inlineStr"/>
-      <c r="CV34" t="inlineStr"/>
       <c r="CW34" t="inlineStr"/>
+      <c r="CX34" t="inlineStr"/>
+      <c r="CY34" t="inlineStr"/>
+      <c r="CZ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5014,10 +5144,10 @@
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="n">
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="n">
         <v>30</v>
       </c>
-      <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
@@ -5040,10 +5170,10 @@
       <c r="BP35" t="inlineStr"/>
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
-      <c r="BS35" t="n">
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
         <v>10</v>
       </c>
-      <c r="BT35" t="inlineStr"/>
       <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="inlineStr"/>
       <c r="BW35" t="inlineStr"/>
@@ -5073,6 +5203,9 @@
       <c r="CU35" t="inlineStr"/>
       <c r="CV35" t="inlineStr"/>
       <c r="CW35" t="inlineStr"/>
+      <c r="CX35" t="inlineStr"/>
+      <c r="CY35" t="inlineStr"/>
+      <c r="CZ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5180,6 +5313,9 @@
       <c r="CU36" t="inlineStr"/>
       <c r="CV36" t="inlineStr"/>
       <c r="CW36" t="inlineStr"/>
+      <c r="CX36" t="inlineStr"/>
+      <c r="CY36" t="inlineStr"/>
+      <c r="CZ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5287,6 +5423,9 @@
       <c r="CU37" t="inlineStr"/>
       <c r="CV37" t="inlineStr"/>
       <c r="CW37" t="inlineStr"/>
+      <c r="CX37" t="inlineStr"/>
+      <c r="CY37" t="inlineStr"/>
+      <c r="CZ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5396,6 +5535,9 @@
       <c r="CU38" t="inlineStr"/>
       <c r="CV38" t="inlineStr"/>
       <c r="CW38" t="inlineStr"/>
+      <c r="CX38" t="inlineStr"/>
+      <c r="CY38" t="inlineStr"/>
+      <c r="CZ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5456,10 +5598,10 @@
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="n">
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="n">
         <v>8</v>
       </c>
-      <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr"/>
@@ -5491,10 +5633,10 @@
       <c r="CC39" t="inlineStr"/>
       <c r="CD39" t="inlineStr"/>
       <c r="CE39" t="inlineStr"/>
-      <c r="CF39" t="n">
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="n">
         <v>25</v>
       </c>
-      <c r="CG39" t="inlineStr"/>
       <c r="CH39" t="inlineStr"/>
       <c r="CI39" t="inlineStr"/>
       <c r="CJ39" t="inlineStr"/>
@@ -5511,6 +5653,9 @@
       <c r="CU39" t="inlineStr"/>
       <c r="CV39" t="inlineStr"/>
       <c r="CW39" t="inlineStr"/>
+      <c r="CX39" t="inlineStr"/>
+      <c r="CY39" t="inlineStr"/>
+      <c r="CZ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5573,10 +5718,10 @@
       <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
-      <c r="BE40" t="n">
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="n">
         <v>8</v>
       </c>
-      <c r="BF40" t="inlineStr"/>
       <c r="BG40" t="inlineStr"/>
       <c r="BH40" t="inlineStr"/>
       <c r="BI40" t="inlineStr"/>
@@ -5620,6 +5765,119 @@
       <c r="CU40" t="inlineStr"/>
       <c r="CV40" t="inlineStr"/>
       <c r="CW40" t="inlineStr"/>
+      <c r="CX40" t="inlineStr"/>
+      <c r="CY40" t="inlineStr"/>
+      <c r="CZ40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>68</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="n">
+        <v>138</v>
+      </c>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="inlineStr"/>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
+      <c r="CC41" t="inlineStr"/>
+      <c r="CD41" t="inlineStr"/>
+      <c r="CE41" t="inlineStr"/>
+      <c r="CF41" t="inlineStr"/>
+      <c r="CG41" t="inlineStr"/>
+      <c r="CH41" t="inlineStr"/>
+      <c r="CI41" t="inlineStr"/>
+      <c r="CJ41" t="inlineStr"/>
+      <c r="CK41" t="inlineStr"/>
+      <c r="CL41" t="inlineStr"/>
+      <c r="CM41" t="inlineStr"/>
+      <c r="CN41" t="inlineStr"/>
+      <c r="CO41" t="inlineStr"/>
+      <c r="CP41" t="inlineStr"/>
+      <c r="CQ41" t="inlineStr"/>
+      <c r="CR41" t="inlineStr"/>
+      <c r="CS41" t="inlineStr"/>
+      <c r="CT41" t="inlineStr"/>
+      <c r="CU41" t="inlineStr"/>
+      <c r="CV41" t="inlineStr"/>
+      <c r="CW41" t="inlineStr"/>
+      <c r="CX41" t="inlineStr"/>
+      <c r="CY41" t="inlineStr"/>
+      <c r="CZ41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
